--- a/data_from.xlsx
+++ b/data_from.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Hakka_AI_Competition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayoa\Downloads\Hakka-AI-Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACBC36-30B9-462C-8527-E01E91D44815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23533F44-E821-4E20-A78F-845100CB465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="4980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+  <si>
+    <t>穿鑿屋</t>
+  </si>
+  <si>
+    <t>圍龍屋</t>
+  </si>
+  <si>
+    <t>雙堂屋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.culture.tw/frontsite/inquiry/emapInquiryAction.do?method=showEmapDetail&amp;indexId=50225</t>
+  </si>
+  <si>
+    <t>https://yuyuhakka.shop2000.com.tw/news/334099</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>https://catalog.digitalarchives.tw/item/00/47/bd/f8.html</t>
-  </si>
-  <si>
-    <t>穿鑿屋</t>
-  </si>
-  <si>
-    <t>圍龍屋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.culture.tw/frontsite/inquiry/emapInquiryAction.do?method=showEmapDetail&amp;indexId=50225</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://zh.wikipedia.org/zh-tw/%E5%9B%B4%E9%BE%99%E5%B1%8B</t>
-  </si>
-  <si>
-    <t>雙堂屋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cloud.culture.tw/frontsite/inquiry/emapInquiryAction.do?method=showEmapDetail&amp;indexId=50225</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tonyhuang39.com/tony0434/tony0434.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-tw/%E5%9B%B4%E9%BE%99%E5%B1%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-tw/%E5%9B%B4%E9%BE%99%E5%B1%10B</t>
+  </si>
+  <si>
+    <t>http://www.chinaql.org/BIG5/n1/2018/0918/c420278-30300381.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.apac.cc/index.php/?p=60&amp;a=view&amp;r=1938</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://catalog.digitalarchives.tw/item/00/5d/f5/d5.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.hakka.gov.tw/Details?p=11299&amp;pid=158593</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +110,14 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,18 +147,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,46 +439,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3084221D-7A60-4A3D-8A2C-88EDE40388B4}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{253ADF47-63F0-4215-A4A2-22B01FDA3B7A}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{553CD57B-43E7-457B-A4FE-32E04E422BDB}"/>
+    <hyperlink ref="F1" r:id="rId4" xr:uid="{9398A040-2C14-4288-964A-59A8DF9C4E7D}"/>
+    <hyperlink ref="B3:B4" r:id="rId5" display="https://yuyuhakka.shop2000.com.tw/news/334099" xr:uid="{C85A09D5-CEFE-4200-9AA8-7D2634B7F0B3}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{4B0A621B-08A8-4928-B9F3-179D7DAE9D0A}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{C8D06B95-FC20-4D36-8A47-107A0E6D5393}"/>
+    <hyperlink ref="F2:F3" r:id="rId8" display="https://zh.wikipedia.org/zh-tw/%E5%9B%B4%E9%BE%99%E5%B1%8B" xr:uid="{5919D5BC-DA74-4ABB-B801-FBA5E108DE46}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{FD4FA79E-EF05-43C2-8B14-A7FA78F41ED9}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{9B1E9202-6EC7-4A2F-9916-1167CECBEF10}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{A9CD9823-A270-4164-91B2-522D3150F248}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{ADC68CCF-6B2C-4721-86E5-F85DAC9967D9}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{06F0D22E-94BB-4953-AED2-72F9849701BF}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{D9996802-315E-4B94-829E-10900EFE5A5F}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{9A04B955-5BD7-40AD-ADB5-710442454A96}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{6C00CFEF-65B6-41D1-895B-9B0C6686D545}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>